--- a/doc/ue_ds_threading_nothreading.xlsx
+++ b/doc/ue_ds_threading_nothreading.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87963461-4E2F-4337-88E7-3A5BC7D7417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC9BDFE-AB8B-4C88-80B4-0E9D27895FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对比" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="分析" sheetId="2" r:id="rId3"/>
-    <sheet name="相关参数" sheetId="3" r:id="rId4"/>
+    <sheet name="分析" sheetId="2" r:id="rId2"/>
+    <sheet name="相关参数" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t xml:space="preserve">  PID USER      PR  NI    VIRT    RES    SHR S %CPU %MEM     TIME+ COMMAND                                                                                                                                                                   </t>
   </si>
@@ -373,6 +373,39 @@
   <si>
     <t>CMD="127.0.0.1:9999"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UGameInstance::Exec(UWorld* InWorld, const TCHAR* Cmd, FOutputDevice&amp; Ar)</t>
+  </si>
+  <si>
+    <t>// @todo a bunch of stuff in UEngine probably belongs here as well</t>
+  </si>
+  <si>
+    <t>if (FParse::Command(&amp;Cmd, TEXT("OPEN")))</t>
+  </si>
+  <si>
+    <t>return HandleOpenCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("DISCONNECT")))</t>
+  </si>
+  <si>
+    <t>return HandleDisconnectCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("RECONNECT")))</t>
+  </si>
+  <si>
+    <t>return HandleReconnectCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("TRAVEL")))</t>
+  </si>
+  <si>
+    <t>return HandleTravelCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>return false;</t>
   </si>
 </sst>
 </file>
@@ -964,33 +997,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B3CA4-BD0F-4EBC-BD2E-A1D28A97972C}">
-  <dimension ref="B6:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09514C2E-C177-44D4-93A1-579E70F95F0C}">
   <dimension ref="B4:N56"/>
   <sheetViews>
@@ -1267,7 +1273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7D08AD-8EFB-486B-A7FC-54CB903B3019}">
   <dimension ref="B3:P15"/>
   <sheetViews>
@@ -1333,4 +1339,136 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B3CA4-BD0F-4EBC-BD2E-A1D28A97972C}">
+  <dimension ref="B6:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_ds_threading_nothreading.xlsx
+++ b/doc/ue_ds_threading_nothreading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC9BDFE-AB8B-4C88-80B4-0E9D27895FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="对比" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="相关参数" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t xml:space="preserve">  PID USER      PR  NI    VIRT    RES    SHR S %CPU %MEM     TIME+ COMMAND                                                                                                                                                                   </t>
   </si>
@@ -406,12 +405,16 @@
   </si>
   <si>
     <t>return false;</t>
+  </si>
+  <si>
+    <t>！！！仅仅在Windows平台有效，狗血！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -997,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09514C2E-C177-44D4-93A1-579E70F95F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N56"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1274,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7D08AD-8EFB-486B-A7FC-54CB903B3019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,6 +1332,9 @@
       <c r="C11" t="s">
         <v>82</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -1338,14 +1344,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B3CA4-BD0F-4EBC-BD2E-A1D28A97972C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_ds_threading_nothreading.xlsx
+++ b/doc/ue_ds_threading_nothreading.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE48B4-F10C-4F3D-A176-A0D192F31153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对比" sheetId="1" r:id="rId1"/>
@@ -22,14 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -380,41 +373,42 @@
     <t>// @todo a bunch of stuff in UEngine probably belongs here as well</t>
   </si>
   <si>
+    <t>return HandleOpenCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("DISCONNECT")))</t>
+  </si>
+  <si>
+    <t>return HandleDisconnectCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("RECONNECT")))</t>
+  </si>
+  <si>
+    <t>return HandleReconnectCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>else if (FParse::Command(&amp;Cmd, TEXT("TRAVEL")))</t>
+  </si>
+  <si>
+    <t>return HandleTravelCommand(Cmd, Ar, InWorld);</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>！！！仅仅在Windows平台有效，狗血！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if (FParse::Command(&amp;Cmd, TEXT("OPEN")))</t>
-  </si>
-  <si>
-    <t>return HandleOpenCommand(Cmd, Ar, InWorld);</t>
-  </si>
-  <si>
-    <t>else if (FParse::Command(&amp;Cmd, TEXT("DISCONNECT")))</t>
-  </si>
-  <si>
-    <t>return HandleDisconnectCommand(Cmd, Ar, InWorld);</t>
-  </si>
-  <si>
-    <t>else if (FParse::Command(&amp;Cmd, TEXT("RECONNECT")))</t>
-  </si>
-  <si>
-    <t>return HandleReconnectCommand(Cmd, Ar, InWorld);</t>
-  </si>
-  <si>
-    <t>else if (FParse::Command(&amp;Cmd, TEXT("TRAVEL")))</t>
-  </si>
-  <si>
-    <t>return HandleTravelCommand(Cmd, Ar, InWorld);</t>
-  </si>
-  <si>
-    <t>return false;</t>
-  </si>
-  <si>
-    <t>！！！仅仅在Windows平台有效，狗血！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,10 +744,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1000,10 +994,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
@@ -1277,10 +1271,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1333,7 +1327,7 @@
         <v>82</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -1349,11 +1343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -1395,7 +1389,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -1405,7 +1399,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -1415,7 +1409,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -1425,7 +1419,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1429,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -1445,7 +1439,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -1455,7 +1449,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1459,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
